--- a/data/blanks/blanks_unsh.xlsx
+++ b/data/blanks/blanks_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\blanks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\blanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D25BB1C-B962-44BD-BA7F-B815DA6D93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D375F086-9B55-4E59-8465-ED266A2D60EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Заготовка (бобышка)</t>
   </si>
   <si>
-    <t>37660М Бобышка LM ARUM Zimmer 3.5 D=10 мм с позиционером с внутр. резьбой (арт. A105) V.1</t>
-  </si>
-  <si>
     <t>37661М Бобышка LM ARUM Biotech 3.6/4.8 D=10 мм с позиционером с внутр. резьбой (арт. А201) V.1</t>
   </si>
   <si>
@@ -74,15 +71,15 @@
     <t>36414М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36706Т Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) V.1</t>
+  </si>
+  <si>
     <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) V.1</t>
   </si>
   <si>
     <t>36405Муп2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.2</t>
   </si>
   <si>
-    <t>36706Т Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) V.1</t>
-  </si>
-  <si>
     <t>36463М Бобышка LM ADM / MEDENTiKA Alpha Bio Internal D=11.5 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -95,12 +92,12 @@
     <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
   </si>
   <si>
+    <t>36415опт Бобышка LM ADM / MEDENTiKA Implantium, Impro D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
     <t>36608Муп2 Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.3</t>
   </si>
   <si>
-    <t>36504Мопт Бобышка LM ZIRKONZAHN Osstem Implant Mini (3.5) D=12 мм с позиционером без внутр. резьбы (арт. BSAF4282) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
     <t>36412М  Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) V.1</t>
   </si>
   <si>
@@ -113,138 +110,138 @@
     <t>36407М Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) V.4</t>
   </si>
   <si>
-    <t>37465МД Бобышка LM Long (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
     <t>36607Мупм2 Бобышка LM ARUM Osstem Implant Mini (3.5) D=10 мм  позиционер ???  внутр. резьба ??? (арт. A029) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
+    <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
     <t>36406М Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) V.1</t>
   </si>
   <si>
-    <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
     <t>36408М Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
+    <t>36463Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Internal D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
+  </si>
+  <si>
     <t>36640Муп2 Бобышка LM ARUM Straumann Bone Level NC (3.3) D=10 мм с позиционером без внутр. резьбы (арт. A498) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
+    <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36616М Бобышка LM ARUM Ankylos X D=10 мм с позиционером без внутр. резьбы (арт. А136) V.1</t>
+  </si>
+  <si>
+    <t>36616М Бобышка LM ARUM Ankylos X D=10 мм с позиционером без внутр. резьбы V.3</t>
+  </si>
+  <si>
+    <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
+  </si>
+  <si>
+    <t>36414Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
+  </si>
+  <si>
+    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36404М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (MED арт. S 9020-R) V.4</t>
+  </si>
+  <si>
+    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
+  </si>
+  <si>
+    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
+  </si>
+  <si>
+    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
-  </si>
-  <si>
-    <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
-  </si>
-  <si>
-    <t>37452МД Бобышка LM Long (собств. разр.) Mis C1 (Conical) NP (3.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>37571МД Бобышка LM Long (собств. разр.) Mis NP (3.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36414Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
+    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
+  </si>
+  <si>
+    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36452Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
   </si>
   <si>
     <t>36469М Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
-  </si>
-  <si>
-    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
-  </si>
-  <si>
-    <t>37579М Бобышка LM Long (собств. разр.) Niko 3.5 D=10 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
     <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
-    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
-  </si>
-  <si>
-    <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36452Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36426Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / 2 ВИНТА, УПА</t>
   </si>
   <si>
@@ -257,21 +254,33 @@
     <t>36402М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 5.0 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
+    <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
     <t>36993М Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) V.1</t>
   </si>
   <si>
-    <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36444М Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36612М Бобышка LM ARUM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой (арт. А091) V.1</t>
+  </si>
+  <si>
+    <t>36400М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36635М Бобышка LM ARUM Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) V.2</t>
+  </si>
+  <si>
     <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
   </si>
   <si>
     <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
   </si>
   <si>
+    <t>36635М Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) V.1</t>
+  </si>
+  <si>
     <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -284,13 +293,13 @@
     <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36430М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) WP (5.0) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.4</t>
+  </si>
+  <si>
+    <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
     <t>36440Мупм2 Бобышка LM ADM / MEDENTiKA Mis NP (3.3) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36430М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) WP (5.0) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.4</t>
-  </si>
-  <si>
-    <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36429М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.1</t>
@@ -776,10 +785,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -792,7 +801,7 @@
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -852,15 +861,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16">
-        <v>6741</v>
+        <v>6289</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="4">
-        <v>3436</v>
+        <v>3456</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>3305</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -886,13 +895,15 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18">
-        <v>500</v>
+        <v>993</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6">
+        <v>630</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>500</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -902,15 +913,15 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18">
-        <v>993</v>
+        <v>237</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="6">
-        <v>630</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>363</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -920,7 +931,7 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="6">
@@ -928,7 +939,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>202</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -938,15 +949,15 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -956,15 +967,15 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18">
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="6">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1010,15 +1021,15 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="6">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1028,15 +1039,15 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="6">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1046,15 +1057,15 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1064,15 +1075,13 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="6">
-        <v>55</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1115,14 +1124,16 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="18">
-        <v>47</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="19">
+        <v>1045</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="8">
+        <v>1000</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1131,16 +1142,16 @@
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="19">
-        <v>1045</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="8">
-        <v>1000</v>
+      <c r="D22" s="18">
+        <v>55</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="6">
+        <v>12</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1150,15 +1161,15 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="6">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1168,15 +1179,15 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="6">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1186,15 +1197,13 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="6">
-        <v>14</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1204,13 +1213,13 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1220,13 +1229,15 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6">
+        <v>14</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1236,11 +1247,11 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
@@ -1254,13 +1265,13 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1270,15 +1281,15 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1304,13 +1315,15 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E32" s="18"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="6">
+        <v>12</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1320,33 +1333,29 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E33" s="18"/>
-      <c r="F33" s="6">
-        <v>10</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E34" s="18"/>
-      <c r="F34" s="6">
-        <v>12</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1372,13 +1381,15 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E36" s="18"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="6">
+        <v>30</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1388,13 +1399,13 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1404,15 +1415,15 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="6">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1422,13 +1433,13 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1438,15 +1449,13 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="6">
-        <v>59</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1538,12 +1547,10 @@
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E46" s="18"/>
-      <c r="F46" s="6">
-        <v>40</v>
-      </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
         <v>10</v>
@@ -1556,10 +1563,12 @@
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E47" s="18"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="6">
+        <v>40</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
         <v>10</v>
@@ -1572,12 +1581,10 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E48" s="18"/>
-      <c r="F48" s="6">
-        <v>20</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
         <v>10</v>
@@ -1590,10 +1597,12 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E49" s="18"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="6">
+        <v>36</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
         <v>10</v>
@@ -1606,12 +1615,10 @@
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E50" s="18"/>
-      <c r="F50" s="6">
-        <v>36</v>
-      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
         <v>10</v>
@@ -1624,11 +1631,11 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
@@ -1658,10 +1665,12 @@
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E53" s="18"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="6">
+        <v>10</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
         <v>10</v>
@@ -1738,12 +1747,10 @@
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E58" s="18"/>
-      <c r="F58" s="6">
-        <v>15</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
         <v>10</v>
@@ -1838,12 +1845,10 @@
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64" s="18"/>
-      <c r="F64" s="6">
-        <v>4</v>
-      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
         <v>10</v>
@@ -1856,10 +1861,12 @@
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E65" s="18"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="6">
+        <v>15</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
         <v>10</v>
@@ -1872,10 +1879,12 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66" s="18"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="6">
+        <v>4</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
         <v>10</v>
@@ -1920,13 +1929,15 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E69" s="18"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="6">
+        <v>20</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1936,12 +1947,10 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E70" s="18"/>
-      <c r="F70" s="6">
-        <v>20</v>
-      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
         <v>9</v>
@@ -1970,13 +1979,15 @@
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E72" s="18"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="6">
+        <v>5</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1986,11 +1997,11 @@
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
@@ -2020,15 +2031,13 @@
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E75" s="18"/>
-      <c r="F75" s="6">
-        <v>20</v>
-      </c>
+      <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2038,13 +2047,13 @@
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2054,11 +2063,11 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="6">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
@@ -2088,11 +2097,11 @@
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="6">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
@@ -2106,13 +2115,13 @@
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2122,13 +2131,13 @@
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2138,15 +2147,15 @@
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2156,13 +2165,13 @@
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2172,15 +2181,13 @@
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E84" s="18"/>
-      <c r="F84" s="6">
-        <v>130</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2190,13 +2197,15 @@
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E85" s="18"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="6">
+        <v>3</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2206,35 +2215,91 @@
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E86" s="18"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="6">
+        <v>130</v>
+      </c>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
+    <row r="87" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="18">
+        <v>2</v>
+      </c>
+      <c r="E87" s="18"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="18">
+        <v>2</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="18">
+        <v>2</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="20">
-        <v>6741</v>
-      </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="9">
-        <v>3436</v>
-      </c>
-      <c r="G87" s="10"/>
-      <c r="H87" s="9">
-        <v>3305</v>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="20">
+        <v>6289</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="9">
+        <v>3456</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="9">
+        <v>2833</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="175">
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:E90"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="A84:C84"/>

--- a/data/blanks/blanks_unsh.xlsx
+++ b/data/blanks/blanks_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\blanks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\blanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D375F086-9B55-4E59-8465-ED266A2D60EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96214D78-8214-4571-A6E7-DF3E4422FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Заготовка (бобышка)</t>
   </si>
   <si>
-    <t>37661М Бобышка LM ARUM Biotech 3.6/4.8 D=10 мм с позиционером с внутр. резьбой (арт. А201) V.1</t>
-  </si>
-  <si>
     <t>36415М  Бобышка LM ADM / MEDENTiKA Implantium, Impro D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) V.1</t>
   </si>
   <si>
@@ -71,12 +68,12 @@
     <t>36414М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) V.1</t>
+  </si>
+  <si>
     <t>36706Т Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) V.1</t>
   </si>
   <si>
-    <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) V.1</t>
-  </si>
-  <si>
     <t>36405Муп2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.2</t>
   </si>
   <si>
@@ -89,13 +86,28 @@
     <t>36411М Бобышка LM ADM / MEDENTiKA Astra Tech 3.5/4.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 040335) V.1</t>
   </si>
   <si>
+    <t>36415опт Бобышка LM ADM / MEDENTiKA Implantium, Impro D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36478Мопт Бобышка LM ADM / MEDENTiKA Niko 3.5 D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36504Мопт Бобышка LM ZIRKONZAHN Osstem Implant Mini (3.5) D=12 мм с позиционером без внутр. резьбы (арт. BSAF4282) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
     <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
   </si>
   <si>
-    <t>36415опт Бобышка LM ADM / MEDENTiKA Implantium, Impro D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36608Муп2 Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.3</t>
+    <t>36411опт Бобышка LM ADM / MEDENTiKA Astra Tech 3.5/4.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 040335) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>37479МД Бобышка LM Long (собств. разр.) Ankylos X D=10 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36426опт Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / ВКЛ. 1 ВИНТ, И</t>
+  </si>
+  <si>
+    <t>36441Мопт Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
   </si>
   <si>
     <t>36412М  Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) V.1</t>
@@ -107,13 +119,43 @@
     <t>36426М Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) V.1</t>
   </si>
   <si>
+    <t>37651МД Бобышка LM Long (собств. разр.) Osstem Implant Mini (3.5) D=10 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36607Мупм2 Бобышка LM ARUM Osstem Implant Mini (3.5) D=10 мм  позиционер ???  внутр. резьба ??? (арт. A029) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
     <t>36407М Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) V.4</t>
   </si>
   <si>
-    <t>36607Мупм2 Бобышка LM ARUM Osstem Implant Mini (3.5) D=10 мм  позиционер ???  внутр. резьба ??? (арт. A029) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+    <t>36412опт Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>37619МД Бобышка LM Long (собств. разр.) Xive 3.4 D=10 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36986Мопт Бобышка LM ADM / MEDENTiKA Roott D=11.5 мм с позиционером с внутр. резьбой (ADM арт. Roott PMAB) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.2</t>
+  </si>
+  <si>
+    <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
+  </si>
+  <si>
+    <t>36640Муп2 Бобышка LM ARUM Straumann Bone Level NC (3.3) D=10 мм с позиционером без внутр. резьбы (арт. A498) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>37463МД Бобышка LM Long (собств. разр.) Mis SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>37551МД Бобышка LM Long (собств. разр.) Conmet NP (2.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36425Мопт Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.2</t>
+  </si>
+  <si>
+    <t>37481МД Бобышка LM Long (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>36406М Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) V.1</t>
@@ -122,24 +164,9 @@
     <t>36408М Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
-    <t>36463Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Internal D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
-  </si>
-  <si>
-    <t>36640Муп2 Бобышка LM ARUM Straumann Bone Level NC (3.3) D=10 мм с позиционером без внутр. резьбы (арт. A498) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36616М Бобышка LM ARUM Ankylos X D=10 мм с позиционером без внутр. резьбы (арт. А136) V.1</t>
-  </si>
-  <si>
-    <t>36616М Бобышка LM ARUM Ankylos X D=10 мм с позиционером без внутр. резьбы V.3</t>
-  </si>
-  <si>
     <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
   </si>
   <si>
@@ -152,96 +179,102 @@
     <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
   </si>
   <si>
+    <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
+  </si>
+  <si>
+    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36404М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (MED арт. S 9020-R) V.4</t>
+  </si>
+  <si>
+    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36988Мопт Бобышка LM ZIRKONZAHN Nobel Replace Select 4.3 D=12 мм с позиционером без внутр. резьбы (арт. BSAF0392) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
+  </si>
+  <si>
+    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36523Мопт Бобышка LM ZIRKONZAHN Nobel Replace Select 3.5 D=12 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
+  </si>
+  <si>
+    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
     <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
   </si>
   <si>
-    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36404М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (MED арт. S 9020-R) V.4</t>
-  </si>
-  <si>
-    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
-  </si>
-  <si>
-    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
-  </si>
-  <si>
-    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
-    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36452Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
+    <t>36469М Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
     <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
   </si>
   <si>
-    <t>36469М Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
     <t>36426Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / 2 ВИНТА, УПА</t>
   </si>
   <si>
@@ -263,40 +296,37 @@
     <t>36444М Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36612М Бобышка LM ARUM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой (арт. А091) V.1</t>
-  </si>
-  <si>
-    <t>36400М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36635М Бобышка LM ARUM Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) V.2</t>
+    <t>36502Мопт2 Бобышка LM ZIRKONZAHN Astra Tech 4.5/5.0 D=12 мм с позиционером без внутр. резьбы (арт. BSAF0183) / 2 ВИНТА V.1</t>
+  </si>
+  <si>
+    <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
   </si>
   <si>
     <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
   </si>
   <si>
-    <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36635М Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) V.1</t>
-  </si>
-  <si>
-    <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
     <t>36443М Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>36401М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
+    <t>36640М Бобышка LM ARUM Straumann Bone Level NC (3.3) D=10 мм с позиционером без внутр. резьбы (арт. A498) V.1</t>
+  </si>
+  <si>
     <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36605Мопт2 Бобышка LM ARUM Mis C1 (Conical) SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой (арт. A184) / 2 ВИНТА V.1</t>
+  </si>
+  <si>
     <t>36430М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) WP (5.0) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.4</t>
-  </si>
-  <si>
-    <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36440Мупм2 Бобышка LM ADM / MEDENTiKA Mis NP (3.3) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
@@ -785,10 +815,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -799,9 +829,8 @@
     <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -861,15 +890,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16">
-        <v>6289</v>
+        <v>6097</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="4">
-        <v>3456</v>
+        <v>3416</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>2833</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -879,13 +908,15 @@
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="18">
-        <v>500</v>
+        <v>993</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6">
+        <v>630</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>500</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -895,15 +926,15 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18">
-        <v>993</v>
+        <v>237</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="6">
-        <v>630</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>363</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -913,7 +944,7 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="6">
@@ -921,7 +952,7 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>202</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -931,15 +962,15 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -949,15 +980,15 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18">
-        <v>159</v>
+        <v>651</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="6">
-        <v>41</v>
+        <v>550</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -967,7 +998,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="6">
@@ -975,7 +1006,7 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -985,15 +1016,15 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
-        <v>651</v>
+        <v>129</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6">
-        <v>550</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1003,15 +1034,15 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="6">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1021,15 +1052,15 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="6">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1039,15 +1070,15 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1057,15 +1088,13 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="6">
-        <v>55</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1107,12 +1136,10 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="6">
-        <v>20</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
         <v>50</v>
@@ -1124,16 +1151,14 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="19">
-        <v>1045</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="8">
-        <v>1000</v>
-      </c>
+      <c r="D21" s="18">
+        <v>50</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1143,15 +1168,13 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="6">
-        <v>12</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1161,15 +1184,13 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="6">
-        <v>70</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1182,12 +1203,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="6">
-        <v>14</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1196,14 +1215,16 @@
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="18">
-        <v>30</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="19">
+        <v>1045</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="8">
+        <v>1000</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1213,13 +1234,15 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6">
+        <v>12</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1229,15 +1252,15 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="6">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1247,15 +1270,13 @@
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E28" s="18"/>
-      <c r="F28" s="6">
-        <v>22</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1265,13 +1286,13 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1281,15 +1302,13 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="18"/>
-      <c r="F30" s="6">
-        <v>10</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1299,13 +1318,15 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E31" s="18"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="6">
+        <v>14</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1315,15 +1336,13 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E32" s="18"/>
-      <c r="F32" s="6">
-        <v>12</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1333,29 +1352,29 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1365,13 +1384,15 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E35" s="18"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6">
+        <v>10</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1381,15 +1402,13 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E36" s="18"/>
-      <c r="F36" s="6">
-        <v>30</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1399,13 +1418,13 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1415,15 +1434,13 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="6">
-        <v>59</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1433,13 +1450,13 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1449,13 +1466,13 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1465,13 +1482,15 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6">
+        <v>14</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1481,13 +1500,15 @@
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="6">
+        <v>22</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1497,13 +1518,15 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E43" s="18"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6">
+        <v>12</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1513,15 +1536,13 @@
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E44" s="18"/>
-      <c r="F44" s="6">
-        <v>40</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1531,13 +1552,15 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E45" s="18"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="6">
+        <v>30</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1547,13 +1570,13 @@
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1563,15 +1586,15 @@
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="6">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1597,12 +1620,10 @@
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E49" s="18"/>
-      <c r="F49" s="6">
-        <v>36</v>
-      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
         <v>10</v>
@@ -1631,11 +1652,11 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
@@ -1649,10 +1670,12 @@
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E52" s="18"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="6">
+        <v>40</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
         <v>10</v>
@@ -1665,12 +1688,10 @@
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E53" s="18"/>
-      <c r="F53" s="6">
-        <v>10</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
         <v>10</v>
@@ -1699,10 +1720,12 @@
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E55" s="18"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="6">
+        <v>40</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
         <v>10</v>
@@ -1763,10 +1786,12 @@
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E59" s="18"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="6">
+        <v>20</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
         <v>10</v>
@@ -1779,10 +1804,12 @@
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E60" s="18"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="6">
+        <v>36</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <v>10</v>
@@ -1795,12 +1822,10 @@
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E61" s="18"/>
-      <c r="F61" s="6">
-        <v>10</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
         <v>10</v>
@@ -1829,10 +1854,12 @@
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E63" s="18"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="6">
+        <v>15</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
         <v>10</v>
@@ -1861,12 +1888,10 @@
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E65" s="18"/>
-      <c r="F65" s="6">
-        <v>15</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
         <v>10</v>
@@ -1879,11 +1904,11 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
@@ -1929,15 +1954,13 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E69" s="18"/>
-      <c r="F69" s="6">
-        <v>20</v>
-      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1947,13 +1970,13 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1963,13 +1986,13 @@
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1979,15 +2002,13 @@
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E72" s="18"/>
-      <c r="F72" s="6">
-        <v>5</v>
-      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1997,15 +2018,13 @@
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E73" s="18"/>
-      <c r="F73" s="6">
-        <v>20</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2015,13 +2034,13 @@
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2031,13 +2050,13 @@
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2047,13 +2066,13 @@
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2063,15 +2082,13 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E77" s="18"/>
-      <c r="F77" s="6">
-        <v>20</v>
-      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2081,13 +2098,13 @@
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2097,15 +2114,15 @@
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="6">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2115,13 +2132,15 @@
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E80" s="18"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="6">
+        <v>20</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2131,13 +2150,13 @@
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2147,15 +2166,13 @@
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="18"/>
-      <c r="F82" s="6">
-        <v>5</v>
-      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2165,13 +2182,15 @@
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18">
+        <v>12</v>
+      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="6">
         <v>5</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2181,13 +2200,15 @@
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E84" s="18"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="6">
+        <v>20</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2197,15 +2218,13 @@
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E85" s="18"/>
-      <c r="F85" s="6">
-        <v>3</v>
-      </c>
+      <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2215,15 +2234,13 @@
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="E86" s="18"/>
-      <c r="F86" s="6">
-        <v>130</v>
-      </c>
+      <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2233,13 +2250,13 @@
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2249,13 +2266,15 @@
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E88" s="18"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="6">
+        <v>5</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2265,41 +2284,227 @@
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="18">
+        <v>85</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="6">
+        <v>80</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="18">
+        <v>4</v>
+      </c>
+      <c r="E91" s="18"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="18">
+        <v>3</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="18">
+        <v>3</v>
+      </c>
+      <c r="E93" s="18"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="18">
+        <v>6</v>
+      </c>
+      <c r="E94" s="18"/>
+      <c r="F94" s="6">
+        <v>3</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
+      <c r="E95" s="18"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="18">
+        <v>2</v>
+      </c>
+      <c r="E96" s="18"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="18">
+        <v>132</v>
+      </c>
+      <c r="E97" s="18"/>
+      <c r="F97" s="6">
+        <v>130</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="18">
+        <v>2</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="18">
+        <v>2</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="20">
-        <v>6289</v>
-      </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="9">
-        <v>3456</v>
-      </c>
-      <c r="G90" s="10"/>
-      <c r="H90" s="9">
-        <v>2833</v>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="20">
+        <v>6097</v>
+      </c>
+      <c r="E100" s="20"/>
+      <c r="F100" s="9">
+        <v>3416</v>
+      </c>
+      <c r="G100" s="10"/>
+      <c r="H100" s="9">
+        <v>2681</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="195">
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:E97"/>
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="A84:C84"/>

--- a/data/blanks/blanks_unsh.xlsx
+++ b/data/blanks/blanks_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\blanks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\blanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96214D78-8214-4571-A6E7-DF3E4422FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3DC7D3-0EBF-4F80-8377-E2B3CD215649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,24 +59,21 @@
     <t>36415М  Бобышка LM ADM / MEDENTiKA Implantium, Impro D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) V.1</t>
   </si>
   <si>
+    <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
+  </si>
+  <si>
+    <t>36414М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
     <t>36413М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) V.1</t>
   </si>
   <si>
-    <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
-  </si>
-  <si>
-    <t>36414М  Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
     <t>36405М Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) V.1</t>
   </si>
   <si>
     <t>36706Т Бобышка LM ARUM Implantium D=10 мм с позиционером без внутр. резьбы (арт. A005) V.1</t>
   </si>
   <si>
-    <t>36405Муп2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
     <t>36463М Бобышка LM ADM / MEDENTiKA Alpha Bio Internal D=11.5 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -86,246 +83,201 @@
     <t>36411М Бобышка LM ADM / MEDENTiKA Astra Tech 3.5/4.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 040335) V.1</t>
   </si>
   <si>
-    <t>36415опт Бобышка LM ADM / MEDENTiKA Implantium, Impro D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36478Мопт Бобышка LM ADM / MEDENTiKA Niko 3.5 D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36504Мопт Бобышка LM ZIRKONZAHN Osstem Implant Mini (3.5) D=12 мм с позиционером без внутр. резьбы (арт. BSAF4282) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
     <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.2</t>
   </si>
   <si>
-    <t>36411опт Бобышка LM ADM / MEDENTiKA Astra Tech 3.5/4.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 040335) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>37479МД Бобышка LM Long (собств. разр.) Ankylos X D=10 мм с позиционером без внутр. резьбы V.1</t>
+    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36412М  Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) V.1</t>
+  </si>
+  <si>
+    <t>36441М Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36426М Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) V.1</t>
+  </si>
+  <si>
+    <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36407М Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) V.4</t>
+  </si>
+  <si>
+    <t>36425Мопт Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.2</t>
+  </si>
+  <si>
+    <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
+  </si>
+  <si>
+    <t>36469М Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>36432М Бобышка LM ADM / MEDENTiKA BoneTrust Conical 3.4 / 4.0 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
+    <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36406М Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) V.1</t>
+  </si>
+  <si>
+    <t>36408М Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
+  </si>
+  <si>
+    <t>37497МДуп2 Бобышка LM Long (собств. разр.) Anthogyr Axiom D=10 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
+  </si>
+  <si>
+    <t>36414Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
+  </si>
+  <si>
+    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>36426опт Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / ВКЛ. 1 ВИНТ, И</t>
   </si>
   <si>
-    <t>36441Мопт Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36412М  Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) V.1</t>
-  </si>
-  <si>
-    <t>36441М Бобышка LM ADM / MEDENTiKA Anthogyr Axiom D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36426М Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) V.1</t>
-  </si>
-  <si>
-    <t>37651МД Бобышка LM Long (собств. разр.) Osstem Implant Mini (3.5) D=10 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36607Мупм2 Бобышка LM ARUM Osstem Implant Mini (3.5) D=10 мм  позиционер ???  внутр. резьба ??? (арт. A029) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36438М Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36407М Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) V.4</t>
-  </si>
-  <si>
-    <t>36412опт Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04140011) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>37619МД Бобышка LM Long (собств. разр.) Xive 3.4 D=10 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36986Мопт Бобышка LM ADM / MEDENTiKA Roott D=11.5 мм с позиционером с внутр. резьбой (ADM арт. Roott PMAB) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.2</t>
-  </si>
-  <si>
-    <t>36416МС Бобышка LM ADM / MEDENTiKA Ankylos C D=11.5 мм без позиционера без внутр. резьбы (ADM арт. 040700) V.1</t>
-  </si>
-  <si>
-    <t>36640Муп2 Бобышка LM ARUM Straumann Bone Level NC (3.3) D=10 мм с позиционером без внутр. резьбы (арт. A498) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>37463МД Бобышка LM Long (собств. разр.) Mis SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>37551МД Бобышка LM Long (собств. разр.) Conmet NP (2.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36425Мопт Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.2</t>
-  </si>
-  <si>
-    <t>37481МД Бобышка LM Long (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36406М Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) V.1</t>
-  </si>
-  <si>
-    <t>36408М Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
-    <t>36436М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36420М Бобышка LM ADM / MEDENTiKA Nobel Active NP (3.5) D=11.5 мм с позиционером без внутр. резьбы (MED арт. F9000-R) V.1</t>
-  </si>
-  <si>
-    <t>36414Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level RC ( 4.1/4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36436Мупм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) NP (3.3) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36608М Бобышка LM ARUM Osstem Implant Regular (4.0/4.5/5.0) D=10 мм с позиционером без внутр. резьбы V.3</t>
+    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
+  </si>
+  <si>
+    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
+  </si>
+  <si>
+    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36475Мопт Бобышка LM ADM / MEDENTiKA Nobel Active 3.0 D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36407Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) / 2 ВИНТА, УПАК V.4</t>
   </si>
   <si>
-    <t>36467Муп2 Бобышка LM ADM / MEDENTiKA Alpha Bio Conical Narrow D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36417Мупм2 Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36469Муп2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36410М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04034511) V.1</t>
-  </si>
-  <si>
-    <t>36989Муп2 Бобышка LM ADM / MEDENTiKA Zimmer 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36404М Бобышка LM ADM / MEDENTiKA Astra Tech 4.5/5.0 D=11.5 мм с позиционером без внутр. резьбы (MED арт. S 9020-R) V.4</t>
-  </si>
-  <si>
-    <t>36474Муп2 Бобышка LM ADM / MEDENTiKA NeoBiotech 3.8 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36988Мопт Бобышка LM ZIRKONZAHN Nobel Replace Select 4.3 D=12 мм с позиционером без внутр. резьбы (арт. BSAF0392) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
-  </si>
-  <si>
-    <t>36444Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36425Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Mini (3.5) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 041035) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36525М Бобышка LM ZIRKONZAHN Zimmer 4.5 D=12 мм с позиционером с внутр. резьбой (арт. BSAF1182) V.1</t>
-  </si>
-  <si>
-    <t>36461Муп2 Бобышка LM ADM / MEDENTiKA MegaGen AnyOne D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36400Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36523Мопт Бобышка LM ZIRKONZAHN Nobel Replace Select 3.5 D=12 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+  </si>
+  <si>
+    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36452Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
+  </si>
+  <si>
+    <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
+  </si>
+  <si>
+    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
+  </si>
+  <si>
+    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
   </si>
   <si>
     <t>36413Мупм2 Бобышка LM ADM / MEDENTiKA Straumann Bone Level NC (3.3) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04083311) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36429М1упм2 Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.2</t>
-  </si>
-  <si>
-    <t>36652Муп2 Бобышка LM ADM / MEDENTiKA MegaGen MiNi D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, В БЛИСТЕРЕ V.1</t>
-  </si>
-  <si>
-    <t>36422Мупм2 Бобышка LM ADM / MEDENTiKA Bego Semados 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
+    <t>36610Мопт Бобышка LM ARUM Xive 4.5 D=10 мм с позиционером без внутр. резьбы (арт. А076) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
   </si>
   <si>
     <t>36635Муп2 Бобышка LM ARUM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=10 мм с позиционером с внутр. резьбой (арт. A090) / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36451Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta WN (6.5) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36417М Бобышка LM ADM / MEDENTiKA Mis WP (5.0/6.0) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36449Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM NP (3.8) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36401Мупм2 Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
-  </si>
-  <si>
-    <t>36450Мупм2 Бобышка LM ADM / MEDENTiKA DIO SM RP (4.5) D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36452Мупм2 Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36443Мупм2 Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36469М Бобышка LM ADM / MEDENTiKA Bego Semados 4.1 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36416Мупм2 Бобышка LM ADM / MEDENTiKA Ankylos X D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04070211) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36431Мупм2 Бобышка LM ADM / MEDENTiKA ICX Medentis D=11.5 мм с позиционером без внутр. резьбы (MED арт. CX 9000-R) / 2 ВИНТА, УПАК V.5</t>
+    <t>36406Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) / 2 ВИНТА, УПАК V.1</t>
+  </si>
+  <si>
+    <t>36405Мупм2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36426Мупм2 Бобышка LM ADM / MEDENTiKA Osstem Implant Regular (4.0/4.5/5.0) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 410140) / 2 ВИНТА, УПА</t>
   </si>
   <si>
-    <t>36405Мупм2 Бобышка LM ADM / MEDENTiKA Mis SP (3.75/4.2) D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 04103511) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
-    <t>36406Мупм2 Бобышка LM ADM / MEDENTiKA Xive 3.4 D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40634) / 2 ВИНТА, УПАК V.1</t>
+    <t>36615Мопт Бобышка LM ARUM ICX Medentis D=10 мм с позиционером без внутр. резьбы (арт. А205) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.1</t>
+  </si>
+  <si>
+    <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
     <t>36402М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 5.0 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
-    <t>36415Мупм2 Бобышка LM ADM / MEDENTiKA Implantium D=11.5 мм с позиционером без внутр. резьбы (ADM арт. 40500) / 2 ВИНТА, УПАК V.1</t>
-  </si>
-  <si>
     <t>36993М Бобышка LM ARUM Straumann SynOcta RN (4.8) D=10 мм с позиционером без внутр. резьбы (арт. A101) V.1</t>
   </si>
   <si>
     <t>36444М Бобышка LM ADM / MEDENTiKA BioHorizons 4.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36502Мопт2 Бобышка LM ZIRKONZAHN Astra Tech 4.5/5.0 D=12 мм с позиционером без внутр. резьбы (арт. BSAF0183) / 2 ВИНТА V.1</t>
-  </si>
-  <si>
-    <t>37471МД Бобышка LM Long (собств. разр.) ICX Medentis D=10 мм с позиционером с внутр. резьбой V.1</t>
+    <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
   </si>
   <si>
     <t>36408Мупм2 Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / 2 ВИНТА, УПАК V.4</t>
   </si>
   <si>
-    <t>36438МV2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой V.2</t>
-  </si>
-  <si>
     <t>36443М Бобышка LM ADM / MEDENTiKA BioHorizons 3.5 D=11.5 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
+    <t>36615Мопт2 Бобышка LM ARUM ICX Medentis D=10 мм с позиционером без внутр. резьбы (арт. А205) / 2 ВИНТА V.1</t>
+  </si>
+  <si>
+    <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
+  </si>
+  <si>
     <t>36401М Бобышка LM ADM / MEDENTiKA Nobel Replace Select 4.3 D=11.5 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
-    <t>36640М Бобышка LM ARUM Straumann Bone Level NC (3.3) D=10 мм с позиционером без внутр. резьбы (арт. A498) V.1</t>
-  </si>
-  <si>
-    <t>36452М Бобышка LM ADM / MEDENTiKA Straumann SynOcta RN (4.8) D=11.5 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
     <t>36438Мупм2 Бобышка LM ADM / MEDENTiKA MegaGen AnyRidge D=11.5 мм с позиционером с внутр. резьбой / 2 ВИНТА, УПАК V.1</t>
   </si>
   <si>
-    <t>36605Мопт2 Бобышка LM ARUM Mis C1 (Conical) SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой (арт. A184) / 2 ВИНТА V.1</t>
-  </si>
-  <si>
     <t>36430М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) WP (5.0) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.4</t>
   </si>
   <si>
@@ -333,6 +285,12 @@
   </si>
   <si>
     <t>36429М Бобышка LM ADM / MEDENTiKA Mis C1 (Conical) SP (3.75/4.2) D=11.5 мм с позиционером с внутр. резьбой (ADM арт. 04133711) V.1</t>
+  </si>
+  <si>
+    <t>36407опт Бобышка LM ADM / MEDENTiKA Xive 3.8 D=11.5 мм с позиционером без внутр. резьбы (MED арт. T 9005-R) / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.4</t>
+  </si>
+  <si>
+    <t>36408опт Бобышка LM ADM / MEDENTiKA Xive 4.5 D=11.5 мм с позиционером без внутр. резьбы / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ V.4</t>
   </si>
 </sst>
 </file>
@@ -815,11 +773,9 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -829,8 +785,9 @@
     <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -890,15 +847,15 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16">
-        <v>6097</v>
+        <v>5409</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="4">
-        <v>3416</v>
+        <v>3387</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>2681</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -926,7 +883,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="6">
@@ -934,7 +891,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>202</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -944,15 +901,15 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -962,15 +919,15 @@
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="6">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1016,15 +973,15 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1034,15 +991,15 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="6">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1052,15 +1009,15 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1070,15 +1027,13 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="6">
-        <v>55</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1088,13 +1043,13 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1103,14 +1058,16 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="18">
-        <v>50</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="19">
+        <v>1045</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="8">
+        <v>1000</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1120,13 +1077,15 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6">
+        <v>12</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1136,13 +1095,15 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6">
+        <v>70</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1152,13 +1113,13 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1168,13 +1129,15 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6">
+        <v>14</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1184,13 +1147,13 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1200,13 +1163,15 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1215,16 +1180,14 @@
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="19">
-        <v>1045</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="8">
-        <v>1000</v>
-      </c>
+      <c r="D25" s="18">
+        <v>20</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1234,15 +1197,13 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="6">
-        <v>12</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1252,15 +1213,15 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="6">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1273,10 +1234,12 @@
         <v>30</v>
       </c>
       <c r="E28" s="18"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6">
+        <v>12</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1286,13 +1249,15 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29" s="18"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="6">
+        <v>14</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1302,13 +1267,15 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E30" s="18"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="6">
+        <v>22</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1318,15 +1285,13 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E31" s="18"/>
-      <c r="F31" s="6">
-        <v>14</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1336,13 +1301,13 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1352,13 +1317,15 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E33" s="18"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="6">
+        <v>30</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1368,13 +1335,13 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1384,15 +1351,15 @@
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1402,13 +1369,13 @@
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1418,13 +1385,13 @@
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1434,13 +1401,13 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1450,13 +1417,13 @@
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1466,13 +1433,15 @@
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6">
+        <v>40</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1482,15 +1451,13 @@
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="6">
-        <v>14</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1500,15 +1467,15 @@
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="6">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1518,15 +1485,13 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E43" s="18"/>
-      <c r="F43" s="6">
-        <v>12</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1536,13 +1501,15 @@
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E44" s="18"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6">
+        <v>20</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1552,15 +1519,15 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1570,13 +1537,13 @@
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1586,15 +1553,13 @@
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E47" s="18"/>
-      <c r="F47" s="6">
-        <v>59</v>
-      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1636,10 +1601,12 @@
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E50" s="18"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="6">
+        <v>10</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
         <v>10</v>
@@ -1652,12 +1619,10 @@
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E51" s="18"/>
-      <c r="F51" s="6">
-        <v>10</v>
-      </c>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
         <v>10</v>
@@ -1670,12 +1635,10 @@
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E52" s="18"/>
-      <c r="F52" s="6">
-        <v>40</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
         <v>10</v>
@@ -1704,10 +1667,12 @@
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E54" s="18"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="6">
+        <v>10</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
         <v>10</v>
@@ -1720,12 +1685,10 @@
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E55" s="18"/>
-      <c r="F55" s="6">
-        <v>40</v>
-      </c>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
         <v>10</v>
@@ -1786,12 +1749,10 @@
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E59" s="18"/>
-      <c r="F59" s="6">
-        <v>20</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
         <v>10</v>
@@ -1804,12 +1765,10 @@
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E60" s="18"/>
-      <c r="F60" s="6">
-        <v>36</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <v>10</v>
@@ -1838,10 +1797,12 @@
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" s="18"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="6">
+        <v>4</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
         <v>10</v>
@@ -1904,15 +1865,13 @@
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E66" s="18"/>
-      <c r="F66" s="6">
-        <v>10</v>
-      </c>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1922,13 +1881,13 @@
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1938,13 +1897,15 @@
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E68" s="18"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="6">
+        <v>20</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1954,13 +1915,13 @@
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1970,13 +1931,15 @@
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E70" s="18"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="6">
+        <v>20</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1986,13 +1949,15 @@
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71" s="18"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="6">
+        <v>5</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2002,13 +1967,13 @@
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2018,13 +1983,13 @@
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2034,13 +1999,15 @@
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E74" s="18"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="6">
+        <v>80</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2050,13 +2017,13 @@
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2066,13 +2033,13 @@
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2082,13 +2049,13 @@
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2098,13 +2065,15 @@
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E78" s="18"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="6">
+        <v>3</v>
+      </c>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2114,15 +2083,13 @@
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E79" s="18"/>
-      <c r="F79" s="6">
-        <v>4</v>
-      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2132,15 +2099,13 @@
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E80" s="18"/>
-      <c r="F80" s="6">
-        <v>20</v>
-      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2150,13 +2115,15 @@
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="E81" s="18"/>
-      <c r="F81" s="7"/>
+      <c r="F81" s="6">
+        <v>130</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2166,13 +2133,13 @@
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2182,15 +2149,13 @@
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E83" s="18"/>
-      <c r="F83" s="6">
-        <v>5</v>
-      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2200,15 +2165,13 @@
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E84" s="18"/>
-      <c r="F84" s="6">
-        <v>20</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2218,293 +2181,35 @@
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="18">
-        <v>6</v>
-      </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="18">
-        <v>6</v>
-      </c>
-      <c r="E87" s="18"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="18">
-        <v>10</v>
-      </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="6">
-        <v>5</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="18">
-        <v>5</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="18">
-        <v>85</v>
-      </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="6">
-        <v>80</v>
-      </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="18">
-        <v>4</v>
-      </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="18">
-        <v>3</v>
-      </c>
-      <c r="E93" s="18"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="18">
-        <v>6</v>
-      </c>
-      <c r="E94" s="18"/>
-      <c r="F94" s="6">
-        <v>3</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="18">
-        <v>2</v>
-      </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="18">
-        <v>2</v>
-      </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="18">
-        <v>132</v>
-      </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="6">
-        <v>130</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="18">
-        <v>2</v>
-      </c>
-      <c r="E98" s="18"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="18">
-        <v>2</v>
-      </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="20">
-        <v>6097</v>
-      </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="9">
-        <v>3416</v>
-      </c>
-      <c r="G100" s="10"/>
-      <c r="H100" s="9">
-        <v>2681</v>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="20">
+        <v>5409</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="9">
+        <v>3387</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="9">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="195">
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
+  <mergeCells count="167">
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="A84:C84"/>
@@ -2513,8 +2218,6 @@
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="D87:E87"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="A79:C79"/>
